--- a/data/dataFunction.xlsx
+++ b/data/dataFunction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82533\OneDrive\Desktop\cs546\final\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B135B4E-EB7E-42E3-8DE7-3523E5373B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367445DC-A90A-4ADA-BE3C-CC33DED7BC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1230" yWindow="1140" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>File Name</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>updateUser(userName, email, birthDate, hasedPassword)</t>
+  </si>
+  <si>
+    <t>reviews.js</t>
+  </si>
+  <si>
+    <t>removeReview(reviewId)</t>
+  </si>
+  <si>
+    <t>getAllUserReviews(UserId)</t>
+  </si>
+  <si>
+    <t>getAllReviews(ParkId)</t>
+  </si>
+  <si>
+    <t>getReview(reviewId)</t>
+  </si>
+  <si>
+    <t>createReview(parkId, userId, reviewTitle, content, rating)</t>
+  </si>
+  <si>
+    <t>String: review id</t>
+  </si>
+  <si>
+    <t>Array: all reviews for the park</t>
+  </si>
+  <si>
+    <t>Array: a review for the review id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None: </t>
+  </si>
+  <si>
+    <t>Array: all reviews for a users</t>
   </si>
 </sst>
 </file>
@@ -405,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +561,61 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
